--- a/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_rfe.xlsx
+++ b/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8906593406593407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7471794871794872</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8179853479853481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6824242424242424</v>
+        <v>0.6984126984126984</v>
       </c>
     </row>
     <row r="6">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (8,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -755,34 +755,34 @@
         <v>6</v>
       </c>
       <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
         <v>8</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K6" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N6" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7032507739938081</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="7">
@@ -892,7 +892,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O8" t="n">
-        <v>0.783882783882784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8063186813186813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8303446553446554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (32,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1027,37 +1027,37 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
       <c r="I11" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="O11" t="n">
-        <v>0.640745044429255</v>
+        <v>0.704225352112676</v>
       </c>
     </row>
     <row r="12">
@@ -1167,7 +1167,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7615384615384616</v>
+        <v>0.9714285714285714</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8277472527472527</v>
+        <v>0.9859154929577465</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7104895104895104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1332,7 +1332,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7771327829377365</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
   </sheetData>
